--- a/Project_1_source_links.xlsx
+++ b/Project_1_source_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0a4c6cb4146cbe1/Desktop/RDA2023/Team_3_Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{FF2F238F-B0AE-4F4E-B970-14266AE14084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDCD2E43-7B38-4875-B0C6-A24314365B38}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{FF2F238F-B0AE-4F4E-B970-14266AE14084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1ED4F38-591A-4EBF-93DE-DCE2F3FE4C22}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{DC162563-C76E-4F01-9343-D46F76EF057C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{DC162563-C76E-4F01-9343-D46F76EF057C}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
@@ -934,11 +934,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.05078125" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1270,7 +1270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE99721-DBDE-4500-89E2-E460B8EF1DAE}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
